--- a/REGULAR/GSO/MANGUINAO, GILBERT.xlsx
+++ b/REGULAR/GSO/MANGUINAO, GILBERT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\GSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8249858-D04A-47AA-A280-B337A1E5FC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C036D7A7-D785-423F-9C6D-7944A5505999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,20 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="323">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1008,6 +1000,9 @@
   </si>
   <si>
     <t>10/28, 11/2</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -2050,7 +2045,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4308" topLeftCell="A558" activePane="bottomLeft"/>
       <selection activeCell="B8" sqref="B8"/>
-      <selection pane="bottomLeft" activeCell="B563" sqref="B563"/>
+      <selection pane="bottomLeft" activeCell="B567" sqref="B567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2212,7 +2207,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>143.43640000000016</v>
+        <v>144.68640000000016</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2222,7 +2217,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>106.54200000000003</v>
+        <v>107.79200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14677,7 +14672,9 @@
       <c r="K563" s="20"/>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A564" s="40"/>
+      <c r="A564" s="48" t="s">
+        <v>322</v>
+      </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
       <c r="D564" s="39"/>
@@ -14693,15 +14690,19 @@
       <c r="K564" s="20"/>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A565" s="40"/>
+      <c r="A565" s="40">
+        <v>44927</v>
+      </c>
       <c r="B565" s="20"/>
-      <c r="C565" s="13"/>
+      <c r="C565" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D565" s="39"/>
       <c r="E565" s="9"/>
       <c r="F565" s="20"/>
-      <c r="G565" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G565" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H565" s="39"/>
       <c r="I565" s="9"/>
@@ -14709,8 +14710,12 @@
       <c r="K565" s="20"/>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A566" s="40"/>
-      <c r="B566" s="20"/>
+      <c r="A566" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B566" s="20" t="s">
+        <v>157</v>
+      </c>
       <c r="C566" s="13"/>
       <c r="D566" s="39"/>
       <c r="E566" s="9"/>
@@ -14722,7 +14727,9 @@
       <c r="H566" s="39"/>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
-      <c r="K566" s="20"/>
+      <c r="K566" s="49">
+        <v>44963</v>
+      </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40"/>
